--- a/0_dev/06b-new-img-sizes.xlsx
+++ b/0_dev/06b-new-img-sizes.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/Dropbox/Professional/05-One-More-Voice/12-OMV-dev/OMV-imgs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/0_dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E204F2C-B200-8045-B2C3-9172F72EBE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBB1213-20B4-3F47-8CF4-BEAEFBA590F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="4" xr2:uid="{BDA854A8-7992-8C46-9CFC-4A708837B61C}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15540" activeTab="3" xr2:uid="{BDA854A8-7992-8C46-9CFC-4A708837B61C}"/>
   </bookViews>
   <sheets>
     <sheet name="100%" sheetId="1" r:id="rId1"/>
     <sheet name="73%" sheetId="4" r:id="rId2"/>
     <sheet name="70%" sheetId="3" r:id="rId3"/>
-    <sheet name="texts-thumbs" sheetId="5" r:id="rId4"/>
-    <sheet name="Checklist" sheetId="2" r:id="rId5"/>
+    <sheet name="vm-thumbs" sheetId="6" r:id="rId4"/>
+    <sheet name="texts-thumbs" sheetId="5" r:id="rId5"/>
+    <sheet name="Checklist" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="163">
   <si>
     <t>becomes</t>
   </si>
@@ -185,6 +186,348 @@
   </si>
   <si>
     <t>liv_021081_0001_thumbnail.tif: 290x290 *** 230</t>
+  </si>
+  <si>
+    <t>70%, low res</t>
+  </si>
+  <si>
+    <t>liv_000003_0016-0017_thumbnail.tif: 1673x1673</t>
+  </si>
+  <si>
+    <t>liv_000023_0077_thumbnail.tif: 2497x2497</t>
+  </si>
+  <si>
+    <t>liv_012001_0001_thumbnail.tif: 1478x1478</t>
+  </si>
+  <si>
+    <t>liv_021001_0001_thumbnail.tif: 2026x2026</t>
+  </si>
+  <si>
+    <t>liv_021002_0001_thumbnail.tif: 2730x2730</t>
+  </si>
+  <si>
+    <t>liv_021003_0001_thumbnail.tif: 319x319*********</t>
+  </si>
+  <si>
+    <t>liv_021004_0001_thumbnail.tif: 746x746</t>
+  </si>
+  <si>
+    <t>liv_021005_0001_thumbnail.tif: 2167x2167</t>
+  </si>
+  <si>
+    <t>liv_021006_0001_thumbnail.tif: 2231x2231</t>
+  </si>
+  <si>
+    <t>liv_021007_0001_thumbnail.tif: 2139x2139</t>
+  </si>
+  <si>
+    <t>liv_021008_0001_thumbnail.tif: 1832x1832</t>
+  </si>
+  <si>
+    <t>liv_021008_0002_thumbnail.tif: 2139x2139</t>
+  </si>
+  <si>
+    <t>liv_021010_0001_thumbnail.tif: 2243x2242</t>
+  </si>
+  <si>
+    <t>liv_021011_0001_thumbnail.tif: 1118x1118</t>
+  </si>
+  <si>
+    <t>liv_021011_0002_thumbnail.tif: 1175x1175</t>
+  </si>
+  <si>
+    <t>liv_021012_0001_thumbnail.tif: 758x757</t>
+  </si>
+  <si>
+    <t>liv_021013_0001_thumbnail.tif: 682x682</t>
+  </si>
+  <si>
+    <t>liv_021014_0001_thumbnail.tif: 1133x1133</t>
+  </si>
+  <si>
+    <t>liv_021015_0001_thumbnail.tif: 1145x1145</t>
+  </si>
+  <si>
+    <t>liv_021016_0001_thumbnail.tif: 1249x1249</t>
+  </si>
+  <si>
+    <t>liv_021018_0001_thumbnail.tif: 2060x2060</t>
+  </si>
+  <si>
+    <t>liv_021018_0002_thumbnail.tif: 1163x1163</t>
+  </si>
+  <si>
+    <t>liv_021018_0003_thumbnail.tif: 1799x1799</t>
+  </si>
+  <si>
+    <t>liv_021019_0001_thumbnail.tif: 1004x1004</t>
+  </si>
+  <si>
+    <t>liv_021020_0001_thumbnail.tif: 1420x1420</t>
+  </si>
+  <si>
+    <t>liv_021021_0001_thumbnail.tif: 1882x1882</t>
+  </si>
+  <si>
+    <t>liv_021023_0001_thumbnail.tif: 1415x1415</t>
+  </si>
+  <si>
+    <t>liv_021024_0001_thumbnail.tif: 1235x1235</t>
+  </si>
+  <si>
+    <t>liv_021025_0001_thumbnail.tif: 1707x1707</t>
+  </si>
+  <si>
+    <t>liv_021026_0001_thumbnail.tif: 2161x2161</t>
+  </si>
+  <si>
+    <t>liv_021027_0001_thumbnail.tif: 1679x1679</t>
+  </si>
+  <si>
+    <t>liv_021028_0001_thumbnail.tif: 1809x1809</t>
+  </si>
+  <si>
+    <t>liv_021029_0001_thumbnail.tif: 1919x1919</t>
+  </si>
+  <si>
+    <t>liv_021030_0001_thumbnail.tif: 1144x1144</t>
+  </si>
+  <si>
+    <t>liv_021031_0001_thumbnail.tif: 1257x1257</t>
+  </si>
+  <si>
+    <t>liv_021032_0001_thumbnail.tif: 1036x1036</t>
+  </si>
+  <si>
+    <t>liv_021033_0003_thumbnail.tif: 877x876</t>
+  </si>
+  <si>
+    <t>liv_021034_0001_thumbnail.tif: 1119x1120</t>
+  </si>
+  <si>
+    <t>liv_021035_0001_thumbnail.tif: 2785x2785</t>
+  </si>
+  <si>
+    <t>liv_021036_0001_thumbnail.tif: 1218x1218</t>
+  </si>
+  <si>
+    <t>liv_021037_0001_thumbnail.tif: 579x579</t>
+  </si>
+  <si>
+    <t>liv_021038_0001_thumbnail.tif: 1547x1547</t>
+  </si>
+  <si>
+    <t>liv_021039_0001_thumbnail.tif: 694x694</t>
+  </si>
+  <si>
+    <t>liv_021040_0001_thumbnail.tif: 1009x1009</t>
+  </si>
+  <si>
+    <t>liv_021041_0001_thumbnail.tif: 680x680</t>
+  </si>
+  <si>
+    <t>liv_021042_0001_thumbnail.tif: 663x664</t>
+  </si>
+  <si>
+    <t>liv_021043_0001_thumbnail.tif: 589x588</t>
+  </si>
+  <si>
+    <t>liv_021045_0001_thumbnail.tif: 1041x1041</t>
+  </si>
+  <si>
+    <t>liv_021046_0001_thumbnail.tif: 879x879</t>
+  </si>
+  <si>
+    <t>liv_021047_0001_thumbnail.tif: 1146x1146</t>
+  </si>
+  <si>
+    <t>liv_021048_0032-0033_thumbnail.tif: 2281x2281</t>
+  </si>
+  <si>
+    <t>liv_021049_0001_thumbnail.tif: 740x740</t>
+  </si>
+  <si>
+    <t>liv_021050_0001_thumbnail.tif: 1915x1915</t>
+  </si>
+  <si>
+    <t>liv_021051_0001_thumbnail.tif: 1830x1830</t>
+  </si>
+  <si>
+    <t>liv_021052_0001_thumbnail.tif: 2169x2169</t>
+  </si>
+  <si>
+    <t>liv_021053_0001_thumbnail.tif: 1619x1619</t>
+  </si>
+  <si>
+    <t>liv_021054_0001_thumbnail.tif: 1921x1921</t>
+  </si>
+  <si>
+    <t>liv_021055_0001_thumbnail.tif: 3437x3437</t>
+  </si>
+  <si>
+    <t>liv_021056_0001_thumbnail.tif: 1300x1300</t>
+  </si>
+  <si>
+    <t>liv_021057_0001_thumbnail.tif: 561x560</t>
+  </si>
+  <si>
+    <t>liv_021058_0001_thumbnail.tif: 1919x1919</t>
+  </si>
+  <si>
+    <t>liv_021059_0001_thumbnail.tif: 2149x2149</t>
+  </si>
+  <si>
+    <t>liv_021060_0001_thumbnail.tif: 503x503*********</t>
+  </si>
+  <si>
+    <t>liv_021061_0001_thumbnail.tif: 2265x2265</t>
+  </si>
+  <si>
+    <t>liv_021062_0001_thumbnail.tif: 525x525</t>
+  </si>
+  <si>
+    <t>liv_021063_0001_thumbnail.tif: 391x391*********</t>
+  </si>
+  <si>
+    <t>liv_021064_0001_thumbnail.tif: 276x276*********</t>
+  </si>
+  <si>
+    <t>liv_021066_0001_thumbnail.tif: 1416x1416</t>
+  </si>
+  <si>
+    <t>liv_021067_0001_thumbnail.tif: 1051x1051</t>
+  </si>
+  <si>
+    <t>liv_021068_0001_thumbnail.tif: 1135x1135</t>
+  </si>
+  <si>
+    <t>liv_021069_0001_thumbnail.tif: 2047x2047</t>
+  </si>
+  <si>
+    <t>liv_021070_0001_thumbnail.tif: 463x463*********</t>
+  </si>
+  <si>
+    <t>liv_021071_0001_thumbnail.tif: 295x295*********</t>
+  </si>
+  <si>
+    <t>liv_021073_0001_thumbnail.tif: 603x603</t>
+  </si>
+  <si>
+    <t>liv_021075_0001_thumbnail.tif: 365x365*********</t>
+  </si>
+  <si>
+    <t>liv_021076_0001_thumbnail.tif: 399x399*********</t>
+  </si>
+  <si>
+    <t>liv_021077_0001_thumbnail.tif: 471x471*********</t>
+  </si>
+  <si>
+    <t>liv_021078_0001_thumbnail.tif: 1671x1671</t>
+  </si>
+  <si>
+    <t>liv_021079_0001_thumbnail.tif: 1502x1502</t>
+  </si>
+  <si>
+    <t>liv_021080_0001_thumbnail.tif: 581x581</t>
+  </si>
+  <si>
+    <t>liv_021081_0001_thumbnail.tif: 1030x1029</t>
+  </si>
+  <si>
+    <t>liv_021082_0001_thumbnail.tif: 1626x1626</t>
+  </si>
+  <si>
+    <t>liv_021083_0001_thumbnail.tif: 1288x1289</t>
+  </si>
+  <si>
+    <t>liv_021084_0001_thumbnail.tif: 1784x1784</t>
+  </si>
+  <si>
+    <t>liv_021085_0001_thumbnail.tif: 2267x2267</t>
+  </si>
+  <si>
+    <t>liv_021086_0001_thumbnail.tif: 1031x1031</t>
+  </si>
+  <si>
+    <t>liv_021087_0001_thumbnail.tif: 1238x1238</t>
+  </si>
+  <si>
+    <t>liv_021088_0001_thumbnail.tif: 1386x1386</t>
+  </si>
+  <si>
+    <t>liv_021089_0001_thumbnail.tif: 1597x1597</t>
+  </si>
+  <si>
+    <t>liv_021090_0001_thumbnail.tif: 429x429*********</t>
+  </si>
+  <si>
+    <t>liv_021091_0001_thumbnail.tif: 200x200*********</t>
+  </si>
+  <si>
+    <t>liv_021092_0001_thumbnail.tif: 3444x3444</t>
+  </si>
+  <si>
+    <t>liv_021093_0001_thumbnail.tif: 1697x1698</t>
+  </si>
+  <si>
+    <t>liv_021094_0001_thumbnail.tif: 3977x3977</t>
+  </si>
+  <si>
+    <t>liv_021095_0001_thumbnail.tif: 1862x1862</t>
+  </si>
+  <si>
+    <t>liv_021096_0001_thumbnail.tif: 1981x1981</t>
+  </si>
+  <si>
+    <t>liv_021097_0001_thumbnail.tif: 5569x5569</t>
+  </si>
+  <si>
+    <t>liv_021098_0001_thumbnail.tif: 392x392*********</t>
+  </si>
+  <si>
+    <t>liv_021099_0001_thumbnail.tif: 496x495*********</t>
+  </si>
+  <si>
+    <t>liv_021100_0001_thumbnail.tif: 551x551</t>
+  </si>
+  <si>
+    <t>liv_021101_0001_thumbnail.tif: 285x285*********</t>
+  </si>
+  <si>
+    <t>liv_021102_0001_thumbnail.tif: 339x339*********</t>
+  </si>
+  <si>
+    <t>liv_021103_0001_thumbnail.tif: 339x339*********</t>
+  </si>
+  <si>
+    <t>liv_021104_0001_thumbnail.tif: 438x439*********</t>
+  </si>
+  <si>
+    <t>liv_021105_0001_thumbnail.tif: 771x770</t>
+  </si>
+  <si>
+    <t>liv_021106_0001_thumbnail.tif: 1624x1631</t>
+  </si>
+  <si>
+    <t>liv_021107_0001_thumbnail.tif: 1372x1372</t>
+  </si>
+  <si>
+    <t>liv_021108_0001_thumbnail.tif: 1386x1385</t>
+  </si>
+  <si>
+    <t>liv_021109_0001_thumbnail.tif: 1410x1410</t>
+  </si>
+  <si>
+    <t>liv_021110_0001_thumbnail.tif: 1073x1073</t>
+  </si>
+  <si>
+    <t>liv_021111_0001_thumbnail.tif: 504x504*********</t>
+  </si>
+  <si>
+    <t>liv_021112_0001_thumbnail.tif: 4334x4334</t>
+  </si>
+  <si>
+    <t>liv_021113_0001_thumbnail.tif: 2043x2043</t>
   </si>
 </sst>
 </file>
@@ -568,7 +911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D76A9C-D37C-2145-AF28-B49E3159F351}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -828,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D37B86C-A66C-2443-A26D-34CC86187F3C}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -877,7 +1220,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -955,10 +1298,732 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3853A4-E9C5-2740-BB26-00D7402AC0D0}">
+  <dimension ref="A1:E122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G131" sqref="G12:G131"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="45.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>320</v>
+      </c>
+      <c r="B1">
+        <v>260</v>
+      </c>
+      <c r="C1">
+        <f>B1*2</f>
+        <v>520</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>480</v>
+      </c>
+      <c r="B2">
+        <v>170</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C4" si="0">B2*2</f>
+        <v>340</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>768</v>
+      </c>
+      <c r="B3">
+        <v>185</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>992</v>
+      </c>
+      <c r="B4">
+        <v>187</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>374</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>170</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>184</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>185</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>252</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>260</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>334</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>340</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>368</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>370</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>504</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>520</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E69" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E72" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E73" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E79" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E80" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E84" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E85" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E86" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E93" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E95" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E96" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E98" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E99" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E100" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E101" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E102" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E104" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E105" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E106" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E107" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E108" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E109" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E110" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E111" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E112" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E113" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E117" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E118" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E119" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E120" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E121" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E122" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FE3BBF-C92B-3D42-8348-B74C54112084}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1154,18 +2219,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061532FB-8607-F24B-9451-7AF7347C6FDC}">
   <dimension ref="A2:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1322,40 +2388,73 @@
       <c r="A20" t="s">
         <v>22</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/0_dev/06b-new-img-sizes.xlsx
+++ b/0_dev/06b-new-img-sizes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/0_dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBB1213-20B4-3F47-8CF4-BEAEFBA590F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64773C7F-E25D-CD49-BF29-7E1B5403FB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15540" activeTab="3" xr2:uid="{BDA854A8-7992-8C46-9CFC-4A708837B61C}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15540" activeTab="2" xr2:uid="{BDA854A8-7992-8C46-9CFC-4A708837B61C}"/>
   </bookViews>
   <sheets>
     <sheet name="100%" sheetId="1" r:id="rId1"/>
@@ -911,7 +911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D76A9C-D37C-2145-AF28-B49E3159F351}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -1171,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D37B86C-A66C-2443-A26D-34CC86187F3C}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1219,13 +1219,13 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>314</v>
       </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
         <v>318</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3853A4-E9C5-2740-BB26-00D7402AC0D0}">
   <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G131" sqref="G12:G131"/>
     </sheetView>
   </sheetViews>

--- a/0_dev/06b-new-img-sizes.xlsx
+++ b/0_dev/06b-new-img-sizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/0_dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64773C7F-E25D-CD49-BF29-7E1B5403FB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8C3CFE-88B3-0E46-B056-B63FE0C0C5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15540" activeTab="2" xr2:uid="{BDA854A8-7992-8C46-9CFC-4A708837B61C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="164">
   <si>
     <t>becomes</t>
   </si>
@@ -528,6 +528,9 @@
   </si>
   <si>
     <t>liv_021113_0001_thumbnail.tif: 2043x2043</t>
+  </si>
+  <si>
+    <t>vms</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -595,6 +598,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,15 +915,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D76A9C-D37C-2145-AF28-B49E3159F351}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>320</v>
       </c>
@@ -928,8 +934,15 @@
         <f>B1*2</f>
         <v>636</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1">
+        <v>275</v>
+      </c>
+      <c r="F1">
+        <f>E1*2</f>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>480</v>
       </c>
@@ -940,8 +953,15 @@
         <f t="shared" ref="C2:C3" si="0">B2*2</f>
         <v>956</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>435</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F3" si="1">E2*2</f>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>768</v>
       </c>
@@ -952,13 +972,25 @@
         <f t="shared" si="0"/>
         <v>1396</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>694</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>992</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>400</v>
       </c>
@@ -968,8 +1000,14 @@
       <c r="C6">
         <v>318</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>608</v>
       </c>
@@ -979,8 +1017,14 @@
       <c r="C7" s="2">
         <v>478</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>638</v>
       </c>
@@ -990,8 +1034,14 @@
       <c r="C8">
         <v>636</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>699</v>
       </c>
@@ -1001,8 +1051,14 @@
       <c r="C9" s="2">
         <v>698</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1216</v>
       </c>
@@ -1012,8 +1068,14 @@
       <c r="C10">
         <v>956</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1276</v>
       </c>
@@ -1023,8 +1085,14 @@
       <c r="C11" s="2">
         <v>1396</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1399</v>
       </c>
@@ -1169,15 +1237,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D37B86C-A66C-2443-A26D-34CC86187F3C}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>320</v>
       </c>
@@ -1188,8 +1256,15 @@
         <f>B1*2</f>
         <v>636</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1">
+        <v>275</v>
+      </c>
+      <c r="F1">
+        <f>E1*2</f>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>480</v>
       </c>
@@ -1200,8 +1275,15 @@
         <f t="shared" ref="C2:C3" si="0">B2*2</f>
         <v>668</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>303</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F3" si="1">E2*2</f>
+        <v>606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>768</v>
       </c>
@@ -1212,13 +1294,20 @@
         <f t="shared" si="0"/>
         <v>976</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>484</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>992</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>314</v>
       </c>
@@ -1228,8 +1317,14 @@
       <c r="C6" s="6">
         <v>318</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>426</v>
       </c>
@@ -1239,8 +1334,14 @@
       <c r="C7" s="2">
         <v>334</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>447</v>
       </c>
@@ -1250,8 +1351,14 @@
       <c r="C8">
         <v>488</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>490</v>
       </c>
@@ -1261,8 +1368,14 @@
       <c r="C9" s="2">
         <v>636</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>852</v>
       </c>
@@ -1272,8 +1385,14 @@
       <c r="C10">
         <v>668</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>894</v>
       </c>
@@ -1283,8 +1402,14 @@
       <c r="C11" s="2">
         <v>976</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>980</v>
       </c>
